--- a/Assignments/Assignment 2/baseline plan.xlsx
+++ b/Assignments/Assignment 2/baseline plan.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="18">
   <si>
     <t xml:space="preserve">Uge</t>
   </si>
@@ -88,6 +88,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -109,6 +110,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -162,7 +164,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -199,18 +201,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AR15"/>
+  <dimension ref="A1:BF15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AB2" activeCellId="0" sqref="AB2"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="42.2959183673469"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.0408163265306"/>
-    <col collapsed="false" hidden="false" max="44" min="3" style="0" width="3.23979591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="45" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.7142857142857"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.7448979591837"/>
+    <col collapsed="false" hidden="false" max="58" min="3" style="0" width="3.23979591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="59" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -271,6 +273,24 @@
       <c r="AP1" s="2"/>
       <c r="AQ1" s="2"/>
       <c r="AR1" s="2"/>
+      <c r="AS1" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AT1" s="2"/>
+      <c r="AU1" s="2"/>
+      <c r="AV1" s="2"/>
+      <c r="AW1" s="2"/>
+      <c r="AX1" s="2"/>
+      <c r="AY1" s="2"/>
+      <c r="AZ1" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="BA1" s="2"/>
+      <c r="BB1" s="2"/>
+      <c r="BC1" s="2"/>
+      <c r="BD1" s="2"/>
+      <c r="BE1" s="2"/>
+      <c r="BF1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="3" t="s">
@@ -397,6 +417,48 @@
         <v>5</v>
       </c>
       <c r="AR2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AX2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AY2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AZ2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="BE2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -478,13 +540,15 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
     <mergeCell ref="C1:I1"/>
     <mergeCell ref="J1:P1"/>
     <mergeCell ref="Q1:W1"/>
     <mergeCell ref="X1:AD1"/>
     <mergeCell ref="AE1:AK1"/>
     <mergeCell ref="AL1:AR1"/>
+    <mergeCell ref="AS1:AY1"/>
+    <mergeCell ref="AZ1:BF1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Assignments/Assignment 2/baseline plan.xlsx
+++ b/Assignments/Assignment 2/baseline plan.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="22">
   <si>
     <t xml:space="preserve">Uge</t>
   </si>
@@ -43,37 +43,49 @@
     <t xml:space="preserve">S</t>
   </si>
   <si>
-    <t xml:space="preserve">Opstil produkt specifikationer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stil krav til produkt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Opstil design</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Opstil prototype (papir form)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interview bruger om prototype</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nye krav, nyt design ud fra feedback</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Produktudvikling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Front-end produkt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CMS system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test produkt på front-end user og back-end user</t>
+    <t xml:space="preserve">Kravspecifikation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Interview with users</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Sketch of prototype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- SQL Database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- CMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-- Back end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-- Front end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Map prototype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Report writing</t>
   </si>
 </sst>
 </file>
@@ -113,15 +125,27 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00CC00"/>
+        <bgColor rgb="FF008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3333"/>
+        <bgColor rgb="FFFF6600"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -129,6 +153,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -155,7 +200,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -176,11 +221,47 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -193,6 +274,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF3333"/>
+      <rgbColor rgb="FF00CC00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -204,15 +345,14 @@
   <dimension ref="A1:BF15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.7142857142857"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.7448979591837"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.1734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.4744897959184"/>
     <col collapsed="false" hidden="false" max="58" min="3" style="0" width="3.23979591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="59" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -282,9 +422,7 @@
       <c r="AW1" s="2"/>
       <c r="AX1" s="2"/>
       <c r="AY1" s="2"/>
-      <c r="AZ1" s="2" t="n">
-        <v>20</v>
-      </c>
+      <c r="AZ1" s="2"/>
       <c r="BA1" s="2"/>
       <c r="BB1" s="2"/>
       <c r="BC1" s="2"/>
@@ -428,39 +566,17 @@
       <c r="AU2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AV2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="AW2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AX2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AY2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AZ2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="BA2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="BB2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="BC2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="BD2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="BE2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="BF2" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="AV2" s="3"/>
+      <c r="AW2" s="3"/>
+      <c r="AX2" s="3"/>
+      <c r="AY2" s="3"/>
+      <c r="AZ2" s="3"/>
+      <c r="BA2" s="3"/>
+      <c r="BB2" s="3"/>
+      <c r="BC2" s="3"/>
+      <c r="BD2" s="3"/>
+      <c r="BE2" s="3"/>
+      <c r="BF2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
@@ -468,76 +584,159 @@
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="AU3" s="9" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="5"/>
+      <c r="A4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="8"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="AU4" s="9" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="13"/>
+      <c r="AU5" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>10</v>
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AU6" s="9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="13"/>
+      <c r="AU7" s="9" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="AU8" s="9" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
+      <c r="A9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="11"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="12"/>
+      <c r="AC9" s="12"/>
+      <c r="AD9" s="12"/>
+      <c r="AE9" s="13"/>
+      <c r="AU9" s="9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
+      </c>
+      <c r="K10" s="11"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="12"/>
+      <c r="AB10" s="12"/>
+      <c r="AC10" s="12"/>
+      <c r="AD10" s="12"/>
+      <c r="AE10" s="13"/>
+      <c r="AU10" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>15</v>
-      </c>
+      <c r="A11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF11" s="11"/>
+      <c r="AG11" s="12"/>
+      <c r="AH11" s="12"/>
+      <c r="AI11" s="12"/>
+      <c r="AJ11" s="12"/>
+      <c r="AK11" s="12"/>
+      <c r="AL11" s="13"/>
+      <c r="AU11" s="14"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>16</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="AM12" s="11"/>
+      <c r="AN12" s="12"/>
+      <c r="AO12" s="12"/>
+      <c r="AP12" s="12"/>
+      <c r="AQ12" s="12"/>
+      <c r="AR12" s="12"/>
+      <c r="AS12" s="13"/>
+      <c r="AU12" s="14"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>17</v>
-      </c>
+      <c r="AU13" s="14"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>12</v>
-      </c>
+      <c r="AU14" s="15"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>13</v>
-      </c>
+      <c r="AU15" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="8">
